--- a/biology/Zoologie/Centroctenus_brevipes/Centroctenus_brevipes.xlsx
+++ b/biology/Zoologie/Centroctenus_brevipes/Centroctenus_brevipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Centroctenus brevipes est une espèce d'araignées aranéomorphes de la famille des Ctenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centroctenus brevipes est une espèce d'araignées aranéomorphes de la famille des Ctenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Colombie, au Brésil, en Bolivie, au Paraguay, en Argentine et en Uruguay[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Colombie, au Brésil, en Bolivie, au Paraguay, en Argentine et en Uruguay.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 10,20 à 14,10 mm et les femelles de 11,40 à 22,35 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 10,20 à 14,10 mm et les femelles de 11,40 à 22,35 mm.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ctenus brevipes par Keyserling en 1891. Elle est placée dans le genre Parabatinga par Polotow et Brescovit en 2009[2] puis dans les Centroctenus par Hazzi &amp; Hormiga en 2023[3].
-Ctenus thomasi[4], Ctenus binotatus[5], Ctenus gynheraldicus[5] et Ctenus albovittatus[6] ont été placées en synonymie par Eickstedt en 1978[7].
-Ctenus taeniatus[8], Ctenus tatarendensis[9], Ctenus anisitsi[10], Ctenus atrivulva[10], Ctenus mentor[10], Isoctenus masculus[11] et Ctenus birabeni[12]  ont été placées en synonymie par Polotow et Brescovit en 2009[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ctenus brevipes par Keyserling en 1891. Elle est placée dans le genre Parabatinga par Polotow et Brescovit en 2009 puis dans les Centroctenus par Hazzi &amp; Hormiga en 2023.
+Ctenus thomasi, Ctenus binotatus, Ctenus gynheraldicus et Ctenus albovittatus ont été placées en synonymie par Eickstedt en 1978.
+Ctenus taeniatus, Ctenus tatarendensis, Ctenus anisitsi, Ctenus atrivulva, Ctenus mentor, Isoctenus masculus et Ctenus birabeni  ont été placées en synonymie par Polotow et Brescovit en 2009.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Keyserling, 1891 : Die Spinnen Amerikas. Brasilianische Spinnen. Nürnberg, vol. 3, p. 1-278.</t>
         </is>
